--- a/doc/接口文档.xlsx
+++ b/doc/接口文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="33340" yWindow="4340" windowWidth="25600" windowHeight="14200" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="通用" sheetId="1" r:id="rId1"/>
@@ -1281,7 +1281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A3:XFD8"/>
     </sheetView>
   </sheetViews>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1474,8 +1474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
